--- a/data/trans_dic/P25A_3_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_3_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por colesterol alto</t>
+          <t>Población con limitación por colesterol alto (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,57 +710,87 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>0,81%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,97%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,48%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,74%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>4,43%</t>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,36</t>
+          <t>0,14; 1,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,45</t>
+          <t>0,22; 1,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,42</t>
+          <t>0,22; 1,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 9,49</t>
+          <t>0,38; 1,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,1</t>
+          <t>0,59; 2,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,67</t>
+          <t>1,23; 4,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,75</t>
+          <t>0,12; 1,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 8,73</t>
+          <t>0,37; 1,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,98</t>
+          <t>0,34; 1,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,21</t>
+          <t>0,27; 1,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,16</t>
+          <t>0,95; 2,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 7,46</t>
+          <t>1,04; 4,3</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 1,05</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 1,25</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 1,29</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 1,34</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 2,21</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 3,47</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,33%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>0,65%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>8,29%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,47</t>
+          <t>0,15; 1,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0,0; 1,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,3</t>
+          <t>0,14; 1,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,54</t>
+          <t>0,0; 1,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,95</t>
+          <t>0,33; 2,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,73</t>
+          <t>0,85; 3,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,65</t>
+          <t>0,16; 3,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,14; 30,31</t>
+          <t>0,29; 1,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,87</t>
+          <t>0,26; 1,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,19</t>
+          <t>1,04; 6,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,3</t>
+          <t>1,25; 6,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 17,61</t>
+          <t>2,01; 6,33</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 2,01</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 1,17</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 1,22</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 3,15</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 3,45</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 4,14</t>
         </is>
       </c>
     </row>
@@ -936,17 +1105,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>1,34%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,21</t>
+          <t>0,0; 3,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,19</t>
+          <t>0,0; 3,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,36</t>
+          <t>0,0; 5,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 8,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,17</t>
+          <t>0,44; 6,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 5,09</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 5,42</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 4,97</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 2,52</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>0,69; 8,74</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 3,47</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 2,73</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 4,65</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 4,39</t>
         </is>
       </c>
     </row>
@@ -1081,57 +1310,87 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>0,92%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,28%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>0,71%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
         <is>
           <t>0,76%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>5,3%</t>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,04</t>
+          <t>0,27; 1,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,03</t>
+          <t>0,28; 1,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,15</t>
+          <t>0,32; 1,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 8,01</t>
+          <t>0,36; 1,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,84</t>
+          <t>0,72; 2,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,39</t>
+          <t>1,17; 2,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,52</t>
+          <t>0,42; 2,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 10,9</t>
+          <t>0,53; 1,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,25</t>
+          <t>0,55; 1,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,06</t>
+          <t>0,59; 2,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,15</t>
+          <t>1,23; 2,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 8,0</t>
+          <t>1,78; 4,04</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 1,21</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 1,1</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 1,19</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 1,5</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 2,23</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 3,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por colesterol alto (tasa de respuesta: 99,72%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9411</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10642</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9719</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3166</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>38442</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7755</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>16225</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15999</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1744</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3858</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>38890</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>17166</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>26867</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>25719</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3782</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>7024</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>77331</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2257; 22854</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3556; 25324</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3655; 24171</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>856; 4030</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1351; 5998</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20122; 65429</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2126; 23667</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6758; 33160</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6127; 32345</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>644; 4249</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2228; 6212</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18844; 77638</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7371; 36078</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>13674; 43038</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>13591; 44673</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1944; 6241</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>4560; 10230</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>47890; 119448</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7424</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5040</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25024</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14093</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11793</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10655</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1824</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>49285</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>21517</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>16833</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>17882</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2672</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>74309</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2042; 21986</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 20065</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1945; 18802</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1419</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>238; 1955</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11749; 45843</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2178; 47820</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3956; 25885</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3636; 24530</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>674; 3927</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>831; 4026</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>27790; 87663</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>9197; 55705</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>7186; 31933</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>9350; 33588</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>913; 4287</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1277; 4810</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>47076; 114510</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2331</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5298</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8737</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5139</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8105</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12525</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>11067</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>9391</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>13403</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>12525</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13874</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14680</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 24465</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1785; 24389</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20687</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1678; 22072</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2797; 35433</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3134; 28556</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2181; 22577</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3672; 38636</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>2685; 36314</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19165</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19934</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22244</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2276</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3906</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>63465</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>30585</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>33157</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>34759</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3568</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5790</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>100700</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>49750</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>53091</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>57004</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>5844</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>9697</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>164165</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9364; 37161</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9642; 39272</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11016; 44061</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1090; 4343</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2165; 7028</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>40326; 100369</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15148; 73516</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>19006; 56613</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>19708; 57689</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1775; 6657</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3706; 8431</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>64186; 145221</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>30806; 85197</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>33071; 76930</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>36977; 84076</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>3555; 9025</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>6833; 13398</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>119494; 219717</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
